--- a/data/citrate_thiamine_merged/cfus_oa.xlsx
+++ b/data/citrate_thiamine_merged/cfus_oa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t xml:space="preserve">Experiment: </t>
   </si>
@@ -218,6 +218,48 @@
   </si>
   <si>
     <t xml:space="preserve">6|17|15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7|9|10|6|11|15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6|6|5|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|23|18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9|15|4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21|22|19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8|9|11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18|18|25|14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7|8|12|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|16|17|13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8|6|7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35|25|33|22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10|7|10|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|21|15|13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4|4|6|8</t>
   </si>
 </sst>
 </file>
@@ -352,10 +394,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="25.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1312,6 +1354,230 @@
       </c>
       <c r="F60" s="0"/>
     </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>452.9</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>452.9</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>475.87</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>501.81</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>501.81</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>524.35</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>524.35</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>552.21</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>552.21</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>575.26</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>575.26</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>597.83</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>597.83</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>619</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
